--- a/Code/Results/Cases/Case_4_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004797948460594</v>
+        <v>1.029392447873921</v>
       </c>
       <c r="D2">
-        <v>1.022475985275171</v>
+        <v>1.034854849791811</v>
       </c>
       <c r="E2">
-        <v>1.012941433310246</v>
+        <v>1.033027458829641</v>
       </c>
       <c r="F2">
-        <v>1.011300803295272</v>
+        <v>1.040262791202527</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046477899965684</v>
+        <v>1.03741252832598</v>
       </c>
       <c r="J2">
-        <v>1.026836094655742</v>
+        <v>1.034539476242356</v>
       </c>
       <c r="K2">
-        <v>1.033630828575412</v>
+        <v>1.037653127440003</v>
       </c>
       <c r="L2">
-        <v>1.024223370228751</v>
+        <v>1.03583099068737</v>
       </c>
       <c r="M2">
-        <v>1.022604913414911</v>
+        <v>1.043045637078266</v>
       </c>
       <c r="N2">
-        <v>1.012769370962276</v>
+        <v>1.015505892564679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008995468331669</v>
+        <v>1.030266124941358</v>
       </c>
       <c r="D3">
-        <v>1.025649345802579</v>
+        <v>1.035530257684425</v>
       </c>
       <c r="E3">
-        <v>1.016640816734443</v>
+        <v>1.033848708211137</v>
       </c>
       <c r="F3">
-        <v>1.016415910950562</v>
+        <v>1.041402718879407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04800607074614</v>
+        <v>1.037668335386179</v>
       </c>
       <c r="J3">
-        <v>1.029243875884795</v>
+        <v>1.035054553785757</v>
       </c>
       <c r="K3">
-        <v>1.035964228920586</v>
+        <v>1.038138165883869</v>
       </c>
       <c r="L3">
-        <v>1.027065112294291</v>
+        <v>1.036461101932312</v>
       </c>
       <c r="M3">
-        <v>1.026842968953183</v>
+        <v>1.043995085100992</v>
       </c>
       <c r="N3">
-        <v>1.013581102413559</v>
+        <v>1.015678289203502</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011656679928026</v>
+        <v>1.030831781883657</v>
       </c>
       <c r="D4">
-        <v>1.027663082813801</v>
+        <v>1.035967481272318</v>
       </c>
       <c r="E4">
-        <v>1.018991303820313</v>
+        <v>1.034380784426401</v>
       </c>
       <c r="F4">
-        <v>1.019659961793612</v>
+        <v>1.042140988850831</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048964377961302</v>
+        <v>1.037832677902401</v>
       </c>
       <c r="J4">
-        <v>1.030766834771188</v>
+        <v>1.035387536900581</v>
       </c>
       <c r="K4">
-        <v>1.037438720463748</v>
+        <v>1.038451528209544</v>
       </c>
       <c r="L4">
-        <v>1.028865798974797</v>
+        <v>1.036868850863004</v>
       </c>
       <c r="M4">
-        <v>1.029526760439804</v>
+        <v>1.044609522175739</v>
       </c>
       <c r="N4">
-        <v>1.01409439379025</v>
+        <v>1.015789691298532</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012762766428806</v>
+        <v>1.031069661906005</v>
       </c>
       <c r="D5">
-        <v>1.028500457129453</v>
+        <v>1.036151334133309</v>
       </c>
       <c r="E5">
-        <v>1.01996943502594</v>
+        <v>1.034604629058861</v>
       </c>
       <c r="F5">
-        <v>1.021008612035267</v>
+        <v>1.042451515378038</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049360119564328</v>
+        <v>1.03790148404017</v>
       </c>
       <c r="J5">
-        <v>1.031398946430462</v>
+        <v>1.035527448784586</v>
       </c>
       <c r="K5">
-        <v>1.038050365892492</v>
+        <v>1.038583147531222</v>
       </c>
       <c r="L5">
-        <v>1.029613963858169</v>
+        <v>1.037040273426908</v>
       </c>
       <c r="M5">
-        <v>1.030641510965773</v>
+        <v>1.044867850452436</v>
       </c>
       <c r="N5">
-        <v>1.01430740064706</v>
+        <v>1.015836488480076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01294775186859</v>
+        <v>1.031109607543419</v>
       </c>
       <c r="D6">
-        <v>1.028640524574103</v>
+        <v>1.03618220638362</v>
       </c>
       <c r="E6">
-        <v>1.020133090037571</v>
+        <v>1.034642222889666</v>
       </c>
       <c r="F6">
-        <v>1.021234184768922</v>
+        <v>1.042503663394961</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049426153125999</v>
+        <v>1.037913020255767</v>
       </c>
       <c r="J6">
-        <v>1.0315046103823</v>
+        <v>1.03555093622896</v>
       </c>
       <c r="K6">
-        <v>1.038152587891778</v>
+        <v>1.038605240037086</v>
       </c>
       <c r="L6">
-        <v>1.029739073315812</v>
+        <v>1.037069056287909</v>
       </c>
       <c r="M6">
-        <v>1.030827903796896</v>
+        <v>1.04491122600557</v>
       </c>
       <c r="N6">
-        <v>1.014343004639739</v>
+        <v>1.015844343796775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011671508783212</v>
+        <v>1.030834960143567</v>
       </c>
       <c r="D7">
-        <v>1.027674307629595</v>
+        <v>1.035969937751743</v>
       </c>
       <c r="E7">
-        <v>1.019004412560529</v>
+        <v>1.034383774823112</v>
       </c>
       <c r="F7">
-        <v>1.01967804128167</v>
+        <v>1.042145137501684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048969693671637</v>
+        <v>1.037833598407843</v>
       </c>
       <c r="J7">
-        <v>1.03077531274432</v>
+        <v>1.0353894067027</v>
       </c>
       <c r="K7">
-        <v>1.037446925334313</v>
+        <v>1.038453287378933</v>
       </c>
       <c r="L7">
-        <v>1.028875830379357</v>
+        <v>1.036871141401675</v>
       </c>
       <c r="M7">
-        <v>1.029541708262641</v>
+        <v>1.044612973896915</v>
       </c>
       <c r="N7">
-        <v>1.014097250820858</v>
+        <v>1.015790316747656</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006228156726837</v>
+        <v>1.029687642293268</v>
       </c>
       <c r="D8">
-        <v>1.023556823439574</v>
+        <v>1.035083067025428</v>
       </c>
       <c r="E8">
-        <v>1.014200826788679</v>
+        <v>1.033304863774452</v>
       </c>
       <c r="F8">
-        <v>1.013043463750081</v>
+        <v>1.040647898144869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047000781055878</v>
+        <v>1.037499223884528</v>
       </c>
       <c r="J8">
-        <v>1.027657223164568</v>
+        <v>1.034713612066261</v>
       </c>
       <c r="K8">
-        <v>1.034426883720122</v>
+        <v>1.037817149367203</v>
       </c>
       <c r="L8">
-        <v>1.025191814235645</v>
+        <v>1.036043933974875</v>
       </c>
       <c r="M8">
-        <v>1.024049604760898</v>
+        <v>1.043366490532173</v>
       </c>
       <c r="N8">
-        <v>1.013046224318382</v>
+        <v>1.015564185685095</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9961947891507705</v>
+        <v>1.027668490293716</v>
       </c>
       <c r="D9">
-        <v>1.015983979386637</v>
+        <v>1.033521796540465</v>
       </c>
       <c r="E9">
-        <v>1.005388674973334</v>
+        <v>1.031408896592052</v>
       </c>
       <c r="F9">
-        <v>1.000820386461203</v>
+        <v>1.03801464321275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043289156385457</v>
+        <v>1.036900986257551</v>
       </c>
       <c r="J9">
-        <v>1.021882638522982</v>
+        <v>1.033520465225905</v>
       </c>
       <c r="K9">
-        <v>1.028822943456486</v>
+        <v>1.036692479786062</v>
       </c>
       <c r="L9">
-        <v>1.018394925528742</v>
+        <v>1.03458652423704</v>
       </c>
       <c r="M9">
-        <v>1.013900167475401</v>
+        <v>1.041170662940938</v>
       </c>
       <c r="N9">
-        <v>1.011098791137373</v>
+        <v>1.015164579352531</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9891773711510893</v>
+        <v>1.026324175939812</v>
       </c>
       <c r="D10">
-        <v>1.010701700026876</v>
+        <v>1.032482041093079</v>
       </c>
       <c r="E10">
-        <v>0.999256003298289</v>
+        <v>1.030148499994683</v>
       </c>
       <c r="F10">
-        <v>0.9922714617489617</v>
+        <v>1.03626256532781</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040639425041498</v>
+        <v>1.03649612353197</v>
       </c>
       <c r="J10">
-        <v>1.017827061319104</v>
+        <v>1.032723529876015</v>
       </c>
       <c r="K10">
-        <v>1.024880383403067</v>
+        <v>1.035940256188257</v>
       </c>
       <c r="L10">
-        <v>1.013638703841081</v>
+        <v>1.033615136396569</v>
       </c>
       <c r="M10">
-        <v>1.006781673626656</v>
+        <v>1.039707226049465</v>
       </c>
       <c r="N10">
-        <v>1.009730644613465</v>
+        <v>1.01489743201704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9860531648651719</v>
+        <v>1.025742509078549</v>
       </c>
       <c r="D11">
-        <v>1.008354060644722</v>
+        <v>1.032032090420516</v>
       </c>
       <c r="E11">
-        <v>0.9965334793481254</v>
+        <v>1.029603599893673</v>
       </c>
       <c r="F11">
-        <v>0.9884644218757395</v>
+        <v>1.035504711086565</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039447445966134</v>
+        <v>1.036319387919375</v>
       </c>
       <c r="J11">
-        <v>1.016017882988262</v>
+        <v>1.032378101447146</v>
       </c>
       <c r="K11">
-        <v>1.023120132723139</v>
+        <v>1.03561396627639</v>
       </c>
       <c r="L11">
-        <v>1.011521066608854</v>
+        <v>1.033194579075427</v>
       </c>
       <c r="M11">
-        <v>1.003607211208108</v>
+        <v>1.039073651732014</v>
       </c>
       <c r="N11">
-        <v>1.009120266202985</v>
+        <v>1.014781582085267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.984879126424778</v>
+        <v>1.02552651766613</v>
       </c>
       <c r="D12">
-        <v>1.007472519956007</v>
+        <v>1.031865000582346</v>
       </c>
       <c r="E12">
-        <v>0.9955116051153092</v>
+        <v>1.029401330198735</v>
       </c>
       <c r="F12">
-        <v>0.9870335414980137</v>
+        <v>1.035223331616546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038997707365304</v>
+        <v>1.036253526477726</v>
       </c>
       <c r="J12">
-        <v>1.015337507371544</v>
+        <v>1.03224974212184</v>
       </c>
       <c r="K12">
-        <v>1.02245794501555</v>
+        <v>1.03549268255977</v>
       </c>
       <c r="L12">
-        <v>1.010725303859508</v>
+        <v>1.033038375352082</v>
       </c>
       <c r="M12">
-        <v>1.002413447162477</v>
+        <v>1.038838329780216</v>
       </c>
       <c r="N12">
-        <v>1.00889071820772</v>
+        <v>1.014738524531836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9851315875706446</v>
+        <v>1.025572845575557</v>
       </c>
       <c r="D13">
-        <v>1.007662051952257</v>
+        <v>1.031900840004559</v>
       </c>
       <c r="E13">
-        <v>0.9957312896363885</v>
+        <v>1.029444711810793</v>
       </c>
       <c r="F13">
-        <v>0.9873412455000234</v>
+        <v>1.035283682975707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039094498593179</v>
+        <v>1.03626766365519</v>
       </c>
       <c r="J13">
-        <v>1.015483835413183</v>
+        <v>1.032277277965557</v>
       </c>
       <c r="K13">
-        <v>1.022600370794425</v>
+        <v>1.03551870216684</v>
       </c>
       <c r="L13">
-        <v>1.010896420392532</v>
+        <v>1.033071881113247</v>
       </c>
       <c r="M13">
-        <v>1.002670188837416</v>
+        <v>1.038888806421151</v>
       </c>
       <c r="N13">
-        <v>1.008940087076224</v>
+        <v>1.014747761682489</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9859563995454267</v>
+        <v>1.025724653818214</v>
       </c>
       <c r="D14">
-        <v>1.00828138920214</v>
+        <v>1.032018277860801</v>
       </c>
       <c r="E14">
-        <v>0.9964492305268939</v>
+        <v>1.029586877548831</v>
       </c>
       <c r="F14">
-        <v>0.9883464928708283</v>
+        <v>1.035481449695986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03941041460162</v>
+        <v>1.03631394815411</v>
       </c>
       <c r="J14">
-        <v>1.015961815951169</v>
+        <v>1.032367492278</v>
       </c>
       <c r="K14">
-        <v>1.023065568725196</v>
+        <v>1.035603942658004</v>
       </c>
       <c r="L14">
-        <v>1.011455478491067</v>
+        <v>1.033181667017485</v>
       </c>
       <c r="M14">
-        <v>1.003508837463822</v>
+        <v>1.039054199623357</v>
       </c>
       <c r="N14">
-        <v>1.009101350119386</v>
+        <v>1.014778023457533</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9864627734292674</v>
+        <v>1.025818196602049</v>
       </c>
       <c r="D15">
-        <v>1.008661707411603</v>
+        <v>1.03209064078675</v>
       </c>
       <c r="E15">
-        <v>0.9968901553384699</v>
+        <v>1.029674487877781</v>
       </c>
       <c r="F15">
-        <v>0.9889636061242081</v>
+        <v>1.035603316380802</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039604126668981</v>
+        <v>1.036342437223351</v>
       </c>
       <c r="J15">
-        <v>1.016255194785433</v>
+        <v>1.032423069449197</v>
       </c>
       <c r="K15">
-        <v>1.023351074110356</v>
+        <v>1.035656450884446</v>
       </c>
       <c r="L15">
-        <v>1.011798702793238</v>
+        <v>1.033249311089496</v>
       </c>
       <c r="M15">
-        <v>1.004023593700786</v>
+        <v>1.03915610592851</v>
       </c>
       <c r="N15">
-        <v>1.009200331122543</v>
+        <v>1.014796665335824</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9893828514175407</v>
+        <v>1.026362788395891</v>
       </c>
       <c r="D16">
-        <v>1.010856195159971</v>
+        <v>1.032511908640359</v>
       </c>
       <c r="E16">
-        <v>0.999435230923756</v>
+        <v>1.030184681446026</v>
       </c>
       <c r="F16">
-        <v>0.9925218239010737</v>
+        <v>1.036312878628859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040717569081355</v>
+        <v>1.036507822860333</v>
       </c>
       <c r="J16">
-        <v>1.017945979329946</v>
+        <v>1.032746447512355</v>
       </c>
       <c r="K16">
-        <v>1.024996055336598</v>
+        <v>1.035961898992745</v>
       </c>
       <c r="L16">
-        <v>1.013777982189599</v>
+        <v>1.033643048748603</v>
       </c>
       <c r="M16">
-        <v>1.0069903455875</v>
+        <v>1.039749276488826</v>
       </c>
       <c r="N16">
-        <v>1.00977076428284</v>
+        <v>1.014905116969749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9911911337098503</v>
+        <v>1.026704512257717</v>
       </c>
       <c r="D17">
-        <v>1.012216265051086</v>
+        <v>1.032776232096321</v>
       </c>
       <c r="E17">
-        <v>1.001013374769935</v>
+        <v>1.030504943518483</v>
       </c>
       <c r="F17">
-        <v>0.9947249552382844</v>
+        <v>1.036758184410859</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041403862572967</v>
+        <v>1.036611183090306</v>
       </c>
       <c r="J17">
-        <v>1.018992083692142</v>
+        <v>1.032949200830767</v>
       </c>
       <c r="K17">
-        <v>1.026013436465851</v>
+        <v>1.036153345939403</v>
       </c>
       <c r="L17">
-        <v>1.015003659155612</v>
+        <v>1.033890046736904</v>
       </c>
       <c r="M17">
-        <v>1.008826111614489</v>
+        <v>1.040121384568808</v>
       </c>
       <c r="N17">
-        <v>1.01012368562227</v>
+        <v>1.014973099621372</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9922376635067971</v>
+        <v>1.026903875442669</v>
       </c>
       <c r="D18">
-        <v>1.013003777343112</v>
+        <v>1.032930433491169</v>
       </c>
       <c r="E18">
-        <v>1.001927449392644</v>
+        <v>1.03069182985402</v>
       </c>
       <c r="F18">
-        <v>0.9959999128803212</v>
+        <v>1.037018001601353</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041799879909635</v>
+        <v>1.036671333609791</v>
       </c>
       <c r="J18">
-        <v>1.019597164355899</v>
+        <v>1.033067429572975</v>
       </c>
       <c r="K18">
-        <v>1.026601761332383</v>
+        <v>1.036264958445734</v>
       </c>
       <c r="L18">
-        <v>1.015712995283802</v>
+        <v>1.034034122210801</v>
       </c>
       <c r="M18">
-        <v>1.009888052119935</v>
+        <v>1.04033843888966</v>
       </c>
       <c r="N18">
-        <v>1.010327814686566</v>
+        <v>1.015012736002724</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.992593131088507</v>
+        <v>1.026971860136836</v>
       </c>
       <c r="D19">
-        <v>1.013271329235452</v>
+        <v>1.032983016552524</v>
       </c>
       <c r="E19">
-        <v>1.002238050270221</v>
+        <v>1.030755567285373</v>
       </c>
       <c r="F19">
-        <v>0.9964329566678403</v>
+        <v>1.03710660575312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041934192773607</v>
+        <v>1.036691820002414</v>
       </c>
       <c r="J19">
-        <v>1.019802628561114</v>
+        <v>1.033107736755462</v>
       </c>
       <c r="K19">
-        <v>1.026801511451404</v>
+        <v>1.036303006027663</v>
       </c>
       <c r="L19">
-        <v>1.015953926886133</v>
+        <v>1.034083249165811</v>
       </c>
       <c r="M19">
-        <v>1.010248671566417</v>
+        <v>1.040412450489293</v>
       </c>
       <c r="N19">
-        <v>1.010397128738174</v>
+        <v>1.01502624813388</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.990997976346637</v>
+        <v>1.026667844228467</v>
       </c>
       <c r="D20">
-        <v>1.01207094483698</v>
+        <v>1.032747869993075</v>
       </c>
       <c r="E20">
-        <v>1.000844723712918</v>
+        <v>1.030470573846459</v>
       </c>
       <c r="F20">
-        <v>0.9944896306016159</v>
+        <v>1.036710399260422</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041330675061076</v>
+        <v>1.03660010776086</v>
       </c>
       <c r="J20">
-        <v>1.018880376259253</v>
+        <v>1.032927450812904</v>
       </c>
       <c r="K20">
-        <v>1.025904810865396</v>
+        <v>1.036132811203426</v>
       </c>
       <c r="L20">
-        <v>1.014872735917609</v>
+        <v>1.033863545590983</v>
       </c>
       <c r="M20">
-        <v>1.008630070219428</v>
+        <v>1.040081459860243</v>
       </c>
       <c r="N20">
-        <v>1.010085999716711</v>
+        <v>1.014965807456384</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9857138934709373</v>
+        <v>1.025679948257194</v>
       </c>
       <c r="D21">
-        <v>1.008099276481052</v>
+        <v>1.031983694173064</v>
       </c>
       <c r="E21">
-        <v>0.9962381121410129</v>
+        <v>1.029545009670738</v>
       </c>
       <c r="F21">
-        <v>0.9880509437221358</v>
+        <v>1.035423208975782</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039317580362828</v>
+        <v>1.036300324425419</v>
       </c>
       <c r="J21">
-        <v>1.015821296819326</v>
+        <v>1.032340927835908</v>
       </c>
       <c r="K21">
-        <v>1.022928813236133</v>
+        <v>1.035578843800765</v>
       </c>
       <c r="L21">
-        <v>1.011291106858567</v>
+        <v>1.033149337521411</v>
       </c>
       <c r="M21">
-        <v>1.003262286765236</v>
+        <v>1.039005495010887</v>
       </c>
       <c r="N21">
-        <v>1.009053941262337</v>
+        <v>1.014769112826784</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9823126873957511</v>
+        <v>1.025059198618262</v>
       </c>
       <c r="D22">
-        <v>1.005546787703568</v>
+        <v>1.031503469410103</v>
       </c>
       <c r="E22">
-        <v>0.9932800874125063</v>
+        <v>1.028963826190869</v>
       </c>
       <c r="F22">
-        <v>0.9839050963809051</v>
+        <v>1.034614603431989</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038011304464084</v>
+        <v>1.036110601042649</v>
       </c>
       <c r="J22">
-        <v>1.013849313923476</v>
+        <v>1.031971858095529</v>
       </c>
       <c r="K22">
-        <v>1.021009156717604</v>
+        <v>1.035230050473132</v>
       </c>
       <c r="L22">
-        <v>1.008985852932467</v>
+        <v>1.03270034484805</v>
       </c>
       <c r="M22">
-        <v>0.9998022843589189</v>
+        <v>1.038329084492064</v>
       </c>
       <c r="N22">
-        <v>1.008388623258045</v>
+        <v>1.014645294393932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9841234582580317</v>
+        <v>1.025388233435586</v>
       </c>
       <c r="D23">
-        <v>1.006905315278829</v>
+        <v>1.031758022196168</v>
       </c>
       <c r="E23">
-        <v>0.994854226205336</v>
+        <v>1.029271850518624</v>
       </c>
       <c r="F23">
-        <v>0.9861124772530209</v>
+        <v>1.035043193949986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038707729608496</v>
+        <v>1.036211294156013</v>
       </c>
       <c r="J23">
-        <v>1.014899445512421</v>
+        <v>1.03216753707279</v>
       </c>
       <c r="K23">
-        <v>1.022031535143097</v>
+        <v>1.035414998773982</v>
       </c>
       <c r="L23">
-        <v>1.010213122805689</v>
+        <v>1.032938358509582</v>
       </c>
       <c r="M23">
-        <v>1.001644839296327</v>
+        <v>1.038687653782549</v>
       </c>
       <c r="N23">
-        <v>1.008742922555304</v>
+        <v>1.014710946878443</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9910852811666967</v>
+        <v>1.026684412804554</v>
       </c>
       <c r="D24">
-        <v>1.012136626657384</v>
+        <v>1.032760685526509</v>
       </c>
       <c r="E24">
-        <v>1.000920949697868</v>
+        <v>1.030486103765838</v>
       </c>
       <c r="F24">
-        <v>0.9945959947915888</v>
+        <v>1.036731991072313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0413637585721</v>
+        <v>1.03660511265117</v>
       </c>
       <c r="J24">
-        <v>1.018930867754327</v>
+        <v>1.032937278814372</v>
       </c>
       <c r="K24">
-        <v>1.02595390982043</v>
+        <v>1.036142090137517</v>
       </c>
       <c r="L24">
-        <v>1.014931911706859</v>
+        <v>1.033875520300489</v>
       </c>
       <c r="M24">
-        <v>1.008718680119315</v>
+        <v>1.040099500086597</v>
       </c>
       <c r="N24">
-        <v>1.010103033673609</v>
+        <v>1.014969102523635</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9988441092077478</v>
+        <v>1.028190178916266</v>
       </c>
       <c r="D25">
-        <v>1.017981363252656</v>
+        <v>1.033925235617418</v>
       </c>
       <c r="E25">
-        <v>1.007710419057155</v>
+        <v>1.031898423944132</v>
       </c>
       <c r="F25">
-        <v>1.00404759490418</v>
+        <v>1.038694800112738</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044278633547855</v>
+        <v>1.037056711517877</v>
       </c>
       <c r="J25">
-        <v>1.023410436404301</v>
+        <v>1.033829190999873</v>
       </c>
       <c r="K25">
-        <v>1.030306810232112</v>
+        <v>1.036983668432227</v>
       </c>
       <c r="L25">
-        <v>1.020190208338026</v>
+        <v>1.034963265467311</v>
       </c>
       <c r="M25">
-        <v>1.016583400450083</v>
+        <v>1.041738259566917</v>
       </c>
       <c r="N25">
-        <v>1.011614119899134</v>
+        <v>1.015268019585527</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029392447873921</v>
+        <v>1.004797948460594</v>
       </c>
       <c r="D2">
-        <v>1.034854849791811</v>
+        <v>1.022475985275171</v>
       </c>
       <c r="E2">
-        <v>1.033027458829641</v>
+        <v>1.012941433310246</v>
       </c>
       <c r="F2">
-        <v>1.040262791202527</v>
+        <v>1.011300803295271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03741252832598</v>
+        <v>1.046477899965683</v>
       </c>
       <c r="J2">
-        <v>1.034539476242356</v>
+        <v>1.026836094655742</v>
       </c>
       <c r="K2">
-        <v>1.037653127440003</v>
+        <v>1.033630828575411</v>
       </c>
       <c r="L2">
-        <v>1.03583099068737</v>
+        <v>1.02422337022875</v>
       </c>
       <c r="M2">
-        <v>1.043045637078266</v>
+        <v>1.022604913414911</v>
       </c>
       <c r="N2">
-        <v>1.015505892564679</v>
+        <v>1.012769370962276</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030266124941358</v>
+        <v>1.008995468331668</v>
       </c>
       <c r="D3">
-        <v>1.035530257684425</v>
+        <v>1.025649345802578</v>
       </c>
       <c r="E3">
-        <v>1.033848708211137</v>
+        <v>1.016640816734443</v>
       </c>
       <c r="F3">
-        <v>1.041402718879407</v>
+        <v>1.016415910950561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037668335386179</v>
+        <v>1.04800607074614</v>
       </c>
       <c r="J3">
-        <v>1.035054553785757</v>
+        <v>1.029243875884794</v>
       </c>
       <c r="K3">
-        <v>1.038138165883869</v>
+        <v>1.035964228920585</v>
       </c>
       <c r="L3">
-        <v>1.036461101932312</v>
+        <v>1.02706511229429</v>
       </c>
       <c r="M3">
-        <v>1.043995085100992</v>
+        <v>1.026842968953183</v>
       </c>
       <c r="N3">
-        <v>1.015678289203502</v>
+        <v>1.013581102413559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030831781883657</v>
+        <v>1.011656679928026</v>
       </c>
       <c r="D4">
-        <v>1.035967481272318</v>
+        <v>1.027663082813802</v>
       </c>
       <c r="E4">
-        <v>1.034380784426401</v>
+        <v>1.018991303820314</v>
       </c>
       <c r="F4">
-        <v>1.042140988850831</v>
+        <v>1.019659961793612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037832677902401</v>
+        <v>1.048964377961302</v>
       </c>
       <c r="J4">
-        <v>1.035387536900581</v>
+        <v>1.030766834771189</v>
       </c>
       <c r="K4">
-        <v>1.038451528209544</v>
+        <v>1.037438720463748</v>
       </c>
       <c r="L4">
-        <v>1.036868850863004</v>
+        <v>1.028865798974798</v>
       </c>
       <c r="M4">
-        <v>1.044609522175739</v>
+        <v>1.029526760439804</v>
       </c>
       <c r="N4">
-        <v>1.015789691298532</v>
+        <v>1.01409439379025</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031069661906005</v>
+        <v>1.012762766428805</v>
       </c>
       <c r="D5">
-        <v>1.036151334133309</v>
+        <v>1.028500457129452</v>
       </c>
       <c r="E5">
-        <v>1.034604629058861</v>
+        <v>1.019969435025939</v>
       </c>
       <c r="F5">
-        <v>1.042451515378038</v>
+        <v>1.021008612035267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03790148404017</v>
+        <v>1.049360119564328</v>
       </c>
       <c r="J5">
-        <v>1.035527448784586</v>
+        <v>1.031398946430462</v>
       </c>
       <c r="K5">
-        <v>1.038583147531222</v>
+        <v>1.038050365892491</v>
       </c>
       <c r="L5">
-        <v>1.037040273426908</v>
+        <v>1.029613963858168</v>
       </c>
       <c r="M5">
-        <v>1.044867850452436</v>
+        <v>1.030641510965772</v>
       </c>
       <c r="N5">
-        <v>1.015836488480076</v>
+        <v>1.014307400647059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031109607543419</v>
+        <v>1.012947751868589</v>
       </c>
       <c r="D6">
-        <v>1.03618220638362</v>
+        <v>1.028640524574103</v>
       </c>
       <c r="E6">
-        <v>1.034642222889666</v>
+        <v>1.02013309003757</v>
       </c>
       <c r="F6">
-        <v>1.042503663394961</v>
+        <v>1.021234184768922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037913020255767</v>
+        <v>1.049426153125999</v>
       </c>
       <c r="J6">
-        <v>1.03555093622896</v>
+        <v>1.031504610382299</v>
       </c>
       <c r="K6">
-        <v>1.038605240037086</v>
+        <v>1.038152587891778</v>
       </c>
       <c r="L6">
-        <v>1.037069056287909</v>
+        <v>1.029739073315812</v>
       </c>
       <c r="M6">
-        <v>1.04491122600557</v>
+        <v>1.030827903796895</v>
       </c>
       <c r="N6">
-        <v>1.015844343796775</v>
+        <v>1.014343004639739</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030834960143567</v>
+        <v>1.011671508783212</v>
       </c>
       <c r="D7">
-        <v>1.035969937751743</v>
+        <v>1.027674307629595</v>
       </c>
       <c r="E7">
-        <v>1.034383774823112</v>
+        <v>1.019004412560529</v>
       </c>
       <c r="F7">
-        <v>1.042145137501684</v>
+        <v>1.01967804128167</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037833598407843</v>
+        <v>1.048969693671637</v>
       </c>
       <c r="J7">
-        <v>1.0353894067027</v>
+        <v>1.03077531274432</v>
       </c>
       <c r="K7">
-        <v>1.038453287378933</v>
+        <v>1.037446925334313</v>
       </c>
       <c r="L7">
-        <v>1.036871141401675</v>
+        <v>1.028875830379356</v>
       </c>
       <c r="M7">
-        <v>1.044612973896915</v>
+        <v>1.029541708262641</v>
       </c>
       <c r="N7">
-        <v>1.015790316747656</v>
+        <v>1.014097250820858</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029687642293268</v>
+        <v>1.006228156726838</v>
       </c>
       <c r="D8">
-        <v>1.035083067025428</v>
+        <v>1.023556823439574</v>
       </c>
       <c r="E8">
-        <v>1.033304863774452</v>
+        <v>1.01420082678868</v>
       </c>
       <c r="F8">
-        <v>1.040647898144869</v>
+        <v>1.013043463750082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037499223884528</v>
+        <v>1.047000781055878</v>
       </c>
       <c r="J8">
-        <v>1.034713612066261</v>
+        <v>1.027657223164568</v>
       </c>
       <c r="K8">
-        <v>1.037817149367203</v>
+        <v>1.034426883720122</v>
       </c>
       <c r="L8">
-        <v>1.036043933974875</v>
+        <v>1.025191814235645</v>
       </c>
       <c r="M8">
-        <v>1.043366490532173</v>
+        <v>1.024049604760898</v>
       </c>
       <c r="N8">
-        <v>1.015564185685095</v>
+        <v>1.013046224318382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027668490293716</v>
+        <v>0.9961947891507706</v>
       </c>
       <c r="D9">
-        <v>1.033521796540465</v>
+        <v>1.015983979386638</v>
       </c>
       <c r="E9">
-        <v>1.031408896592052</v>
+        <v>1.005388674973334</v>
       </c>
       <c r="F9">
-        <v>1.03801464321275</v>
+        <v>1.000820386461204</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036900986257551</v>
+        <v>1.043289156385457</v>
       </c>
       <c r="J9">
-        <v>1.033520465225905</v>
+        <v>1.021882638522983</v>
       </c>
       <c r="K9">
-        <v>1.036692479786062</v>
+        <v>1.028822943456486</v>
       </c>
       <c r="L9">
-        <v>1.03458652423704</v>
+        <v>1.018394925528742</v>
       </c>
       <c r="M9">
-        <v>1.041170662940938</v>
+        <v>1.013900167475402</v>
       </c>
       <c r="N9">
-        <v>1.015164579352531</v>
+        <v>1.011098791137374</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026324175939812</v>
+        <v>0.9891773711510894</v>
       </c>
       <c r="D10">
-        <v>1.032482041093079</v>
+        <v>1.010701700026876</v>
       </c>
       <c r="E10">
-        <v>1.030148499994683</v>
+        <v>0.999256003298289</v>
       </c>
       <c r="F10">
-        <v>1.03626256532781</v>
+        <v>0.9922714617489617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03649612353197</v>
+        <v>1.040639425041498</v>
       </c>
       <c r="J10">
-        <v>1.032723529876015</v>
+        <v>1.017827061319104</v>
       </c>
       <c r="K10">
-        <v>1.035940256188257</v>
+        <v>1.024880383403067</v>
       </c>
       <c r="L10">
-        <v>1.033615136396569</v>
+        <v>1.013638703841081</v>
       </c>
       <c r="M10">
-        <v>1.039707226049465</v>
+        <v>1.006781673626655</v>
       </c>
       <c r="N10">
-        <v>1.01489743201704</v>
+        <v>1.009730644613465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025742509078549</v>
+        <v>0.9860531648651721</v>
       </c>
       <c r="D11">
-        <v>1.032032090420516</v>
+        <v>1.008354060644723</v>
       </c>
       <c r="E11">
-        <v>1.029603599893673</v>
+        <v>0.9965334793481254</v>
       </c>
       <c r="F11">
-        <v>1.035504711086565</v>
+        <v>0.9884644218757402</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036319387919375</v>
+        <v>1.039447445966134</v>
       </c>
       <c r="J11">
-        <v>1.032378101447146</v>
+        <v>1.016017882988262</v>
       </c>
       <c r="K11">
-        <v>1.03561396627639</v>
+        <v>1.023120132723139</v>
       </c>
       <c r="L11">
-        <v>1.033194579075427</v>
+        <v>1.011521066608854</v>
       </c>
       <c r="M11">
-        <v>1.039073651732014</v>
+        <v>1.003607211208109</v>
       </c>
       <c r="N11">
-        <v>1.014781582085267</v>
+        <v>1.009120266202986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02552651766613</v>
+        <v>0.9848791264247764</v>
       </c>
       <c r="D12">
-        <v>1.031865000582346</v>
+        <v>1.007472519956005</v>
       </c>
       <c r="E12">
-        <v>1.029401330198735</v>
+        <v>0.995511605115308</v>
       </c>
       <c r="F12">
-        <v>1.035223331616546</v>
+        <v>0.9870335414980123</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036253526477726</v>
+        <v>1.038997707365303</v>
       </c>
       <c r="J12">
-        <v>1.03224974212184</v>
+        <v>1.015337507371543</v>
       </c>
       <c r="K12">
-        <v>1.03549268255977</v>
+        <v>1.022457945015548</v>
       </c>
       <c r="L12">
-        <v>1.033038375352082</v>
+        <v>1.010725303859506</v>
       </c>
       <c r="M12">
-        <v>1.038838329780216</v>
+        <v>1.002413447162476</v>
       </c>
       <c r="N12">
-        <v>1.014738524531836</v>
+        <v>1.00889071820772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025572845575557</v>
+        <v>0.9851315875706451</v>
       </c>
       <c r="D13">
-        <v>1.031900840004559</v>
+        <v>1.007662051952258</v>
       </c>
       <c r="E13">
-        <v>1.029444711810793</v>
+        <v>0.9957312896363886</v>
       </c>
       <c r="F13">
-        <v>1.035283682975707</v>
+        <v>0.9873412455000239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03626766365519</v>
+        <v>1.039094498593179</v>
       </c>
       <c r="J13">
-        <v>1.032277277965557</v>
+        <v>1.015483835413184</v>
       </c>
       <c r="K13">
-        <v>1.03551870216684</v>
+        <v>1.022600370794426</v>
       </c>
       <c r="L13">
-        <v>1.033071881113247</v>
+        <v>1.010896420392533</v>
       </c>
       <c r="M13">
-        <v>1.038888806421151</v>
+        <v>1.002670188837417</v>
       </c>
       <c r="N13">
-        <v>1.014747761682489</v>
+        <v>1.008940087076224</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025724653818214</v>
+        <v>0.9859563995454261</v>
       </c>
       <c r="D14">
-        <v>1.032018277860801</v>
+        <v>1.00828138920214</v>
       </c>
       <c r="E14">
-        <v>1.029586877548831</v>
+        <v>0.9964492305268935</v>
       </c>
       <c r="F14">
-        <v>1.035481449695986</v>
+        <v>0.9883464928708273</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03631394815411</v>
+        <v>1.03941041460162</v>
       </c>
       <c r="J14">
-        <v>1.032367492278</v>
+        <v>1.015961815951169</v>
       </c>
       <c r="K14">
-        <v>1.035603942658004</v>
+        <v>1.023065568725196</v>
       </c>
       <c r="L14">
-        <v>1.033181667017485</v>
+        <v>1.011455478491066</v>
       </c>
       <c r="M14">
-        <v>1.039054199623357</v>
+        <v>1.003508837463821</v>
       </c>
       <c r="N14">
-        <v>1.014778023457533</v>
+        <v>1.009101350119386</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025818196602049</v>
+        <v>0.9864627734292669</v>
       </c>
       <c r="D15">
-        <v>1.03209064078675</v>
+        <v>1.008661707411602</v>
       </c>
       <c r="E15">
-        <v>1.029674487877781</v>
+        <v>0.9968901553384695</v>
       </c>
       <c r="F15">
-        <v>1.035603316380802</v>
+        <v>0.9889636061242072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036342437223351</v>
+        <v>1.039604126668981</v>
       </c>
       <c r="J15">
-        <v>1.032423069449197</v>
+        <v>1.016255194785433</v>
       </c>
       <c r="K15">
-        <v>1.035656450884446</v>
+        <v>1.023351074110356</v>
       </c>
       <c r="L15">
-        <v>1.033249311089496</v>
+        <v>1.011798702793238</v>
       </c>
       <c r="M15">
-        <v>1.03915610592851</v>
+        <v>1.004023593700785</v>
       </c>
       <c r="N15">
-        <v>1.014796665335824</v>
+        <v>1.009200331122543</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026362788395891</v>
+        <v>0.9893828514175402</v>
       </c>
       <c r="D16">
-        <v>1.032511908640359</v>
+        <v>1.010856195159971</v>
       </c>
       <c r="E16">
-        <v>1.030184681446026</v>
+        <v>0.9994352309237554</v>
       </c>
       <c r="F16">
-        <v>1.036312878628859</v>
+        <v>0.9925218239010732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036507822860333</v>
+        <v>1.040717569081355</v>
       </c>
       <c r="J16">
-        <v>1.032746447512355</v>
+        <v>1.017945979329945</v>
       </c>
       <c r="K16">
-        <v>1.035961898992745</v>
+        <v>1.024996055336597</v>
       </c>
       <c r="L16">
-        <v>1.033643048748603</v>
+        <v>1.013777982189599</v>
       </c>
       <c r="M16">
-        <v>1.039749276488826</v>
+        <v>1.0069903455875</v>
       </c>
       <c r="N16">
-        <v>1.014905116969749</v>
+        <v>1.00977076428284</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026704512257717</v>
+        <v>0.9911911337098491</v>
       </c>
       <c r="D17">
-        <v>1.032776232096321</v>
+        <v>1.012216265051086</v>
       </c>
       <c r="E17">
-        <v>1.030504943518483</v>
+        <v>1.001013374769933</v>
       </c>
       <c r="F17">
-        <v>1.036758184410859</v>
+        <v>0.9947249552382837</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036611183090306</v>
+        <v>1.041403862572966</v>
       </c>
       <c r="J17">
-        <v>1.032949200830767</v>
+        <v>1.018992083692141</v>
       </c>
       <c r="K17">
-        <v>1.036153345939403</v>
+        <v>1.02601343646585</v>
       </c>
       <c r="L17">
-        <v>1.033890046736904</v>
+        <v>1.015003659155611</v>
       </c>
       <c r="M17">
-        <v>1.040121384568808</v>
+        <v>1.008826111614488</v>
       </c>
       <c r="N17">
-        <v>1.014973099621372</v>
+        <v>1.01012368562227</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026903875442669</v>
+        <v>0.9922376635067974</v>
       </c>
       <c r="D18">
-        <v>1.032930433491169</v>
+        <v>1.013003777343112</v>
       </c>
       <c r="E18">
-        <v>1.03069182985402</v>
+        <v>1.001927449392644</v>
       </c>
       <c r="F18">
-        <v>1.037018001601353</v>
+        <v>0.9959999128803213</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036671333609791</v>
+        <v>1.041799879909636</v>
       </c>
       <c r="J18">
-        <v>1.033067429572975</v>
+        <v>1.019597164355899</v>
       </c>
       <c r="K18">
-        <v>1.036264958445734</v>
+        <v>1.026601761332384</v>
       </c>
       <c r="L18">
-        <v>1.034034122210801</v>
+        <v>1.015712995283802</v>
       </c>
       <c r="M18">
-        <v>1.04033843888966</v>
+        <v>1.009888052119936</v>
       </c>
       <c r="N18">
-        <v>1.015012736002724</v>
+        <v>1.010327814686567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026971860136836</v>
+        <v>0.9925931310885067</v>
       </c>
       <c r="D19">
-        <v>1.032983016552524</v>
+        <v>1.013271329235452</v>
       </c>
       <c r="E19">
-        <v>1.030755567285373</v>
+        <v>1.002238050270221</v>
       </c>
       <c r="F19">
-        <v>1.03710660575312</v>
+        <v>0.99643295666784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036691820002414</v>
+        <v>1.041934192773607</v>
       </c>
       <c r="J19">
-        <v>1.033107736755462</v>
+        <v>1.019802628561114</v>
       </c>
       <c r="K19">
-        <v>1.036303006027663</v>
+        <v>1.026801511451404</v>
       </c>
       <c r="L19">
-        <v>1.034083249165811</v>
+        <v>1.015953926886132</v>
       </c>
       <c r="M19">
-        <v>1.040412450489293</v>
+        <v>1.010248671566417</v>
       </c>
       <c r="N19">
-        <v>1.01502624813388</v>
+        <v>1.010397128738174</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026667844228467</v>
+        <v>0.9909979763466378</v>
       </c>
       <c r="D20">
-        <v>1.032747869993075</v>
+        <v>1.012070944836981</v>
       </c>
       <c r="E20">
-        <v>1.030470573846459</v>
+        <v>1.000844723712919</v>
       </c>
       <c r="F20">
-        <v>1.036710399260422</v>
+        <v>0.9944896306016165</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03660010776086</v>
+        <v>1.041330675061077</v>
       </c>
       <c r="J20">
-        <v>1.032927450812904</v>
+        <v>1.018880376259254</v>
       </c>
       <c r="K20">
-        <v>1.036132811203426</v>
+        <v>1.025904810865397</v>
       </c>
       <c r="L20">
-        <v>1.033863545590983</v>
+        <v>1.01487273591761</v>
       </c>
       <c r="M20">
-        <v>1.040081459860243</v>
+        <v>1.008630070219428</v>
       </c>
       <c r="N20">
-        <v>1.014965807456384</v>
+        <v>1.010085999716711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025679948257194</v>
+        <v>0.9857138934709374</v>
       </c>
       <c r="D21">
-        <v>1.031983694173064</v>
+        <v>1.008099276481052</v>
       </c>
       <c r="E21">
-        <v>1.029545009670738</v>
+        <v>0.9962381121410129</v>
       </c>
       <c r="F21">
-        <v>1.035423208975782</v>
+        <v>0.9880509437221359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036300324425419</v>
+        <v>1.039317580362828</v>
       </c>
       <c r="J21">
-        <v>1.032340927835908</v>
+        <v>1.015821296819326</v>
       </c>
       <c r="K21">
-        <v>1.035578843800765</v>
+        <v>1.022928813236133</v>
       </c>
       <c r="L21">
-        <v>1.033149337521411</v>
+        <v>1.011291106858567</v>
       </c>
       <c r="M21">
-        <v>1.039005495010887</v>
+        <v>1.003262286765236</v>
       </c>
       <c r="N21">
-        <v>1.014769112826784</v>
+        <v>1.009053941262337</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025059198618262</v>
+        <v>0.9823126873957508</v>
       </c>
       <c r="D22">
-        <v>1.031503469410103</v>
+        <v>1.005546787703568</v>
       </c>
       <c r="E22">
-        <v>1.028963826190869</v>
+        <v>0.9932800874125058</v>
       </c>
       <c r="F22">
-        <v>1.034614603431989</v>
+        <v>0.9839050963809047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036110601042649</v>
+        <v>1.038011304464083</v>
       </c>
       <c r="J22">
-        <v>1.031971858095529</v>
+        <v>1.013849313923475</v>
       </c>
       <c r="K22">
-        <v>1.035230050473132</v>
+        <v>1.021009156717604</v>
       </c>
       <c r="L22">
-        <v>1.03270034484805</v>
+        <v>1.008985852932466</v>
       </c>
       <c r="M22">
-        <v>1.038329084492064</v>
+        <v>0.9998022843589186</v>
       </c>
       <c r="N22">
-        <v>1.014645294393932</v>
+        <v>1.008388623258045</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025388233435586</v>
+        <v>0.984123458258031</v>
       </c>
       <c r="D23">
-        <v>1.031758022196168</v>
+        <v>1.006905315278829</v>
       </c>
       <c r="E23">
-        <v>1.029271850518624</v>
+        <v>0.9948542262053351</v>
       </c>
       <c r="F23">
-        <v>1.035043193949986</v>
+        <v>0.9861124772530201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036211294156013</v>
+        <v>1.038707729608495</v>
       </c>
       <c r="J23">
-        <v>1.03216753707279</v>
+        <v>1.01489944551242</v>
       </c>
       <c r="K23">
-        <v>1.035414998773982</v>
+        <v>1.022031535143096</v>
       </c>
       <c r="L23">
-        <v>1.032938358509582</v>
+        <v>1.010213122805688</v>
       </c>
       <c r="M23">
-        <v>1.038687653782549</v>
+        <v>1.001644839296326</v>
       </c>
       <c r="N23">
-        <v>1.014710946878443</v>
+        <v>1.008742922555304</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026684412804554</v>
+        <v>0.9910852811666964</v>
       </c>
       <c r="D24">
-        <v>1.032760685526509</v>
+        <v>1.012136626657384</v>
       </c>
       <c r="E24">
-        <v>1.030486103765838</v>
+        <v>1.000920949697867</v>
       </c>
       <c r="F24">
-        <v>1.036731991072313</v>
+        <v>0.9945959947915883</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03660511265117</v>
+        <v>1.0413637585721</v>
       </c>
       <c r="J24">
-        <v>1.032937278814372</v>
+        <v>1.018930867754326</v>
       </c>
       <c r="K24">
-        <v>1.036142090137517</v>
+        <v>1.02595390982043</v>
       </c>
       <c r="L24">
-        <v>1.033875520300489</v>
+        <v>1.014931911706859</v>
       </c>
       <c r="M24">
-        <v>1.040099500086597</v>
+        <v>1.008718680119314</v>
       </c>
       <c r="N24">
-        <v>1.014969102523635</v>
+        <v>1.010103033673609</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028190178916266</v>
+        <v>0.9988441092077472</v>
       </c>
       <c r="D25">
-        <v>1.033925235617418</v>
+        <v>1.017981363252655</v>
       </c>
       <c r="E25">
-        <v>1.031898423944132</v>
+        <v>1.007710419057155</v>
       </c>
       <c r="F25">
-        <v>1.038694800112738</v>
+        <v>1.004047594904179</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037056711517877</v>
+        <v>1.044278633547855</v>
       </c>
       <c r="J25">
-        <v>1.033829190999873</v>
+        <v>1.023410436404301</v>
       </c>
       <c r="K25">
-        <v>1.036983668432227</v>
+        <v>1.030306810232111</v>
       </c>
       <c r="L25">
-        <v>1.034963265467311</v>
+        <v>1.020190208338026</v>
       </c>
       <c r="M25">
-        <v>1.041738259566917</v>
+        <v>1.016583400450082</v>
       </c>
       <c r="N25">
-        <v>1.015268019585527</v>
+        <v>1.011614119899134</v>
       </c>
     </row>
   </sheetData>
